--- a/docs/openfda.xlsx
+++ b/docs/openfda.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="150" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25220" windowHeight="10780" tabRatio="150" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="openfda fields" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="query" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="header" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="openfda fields" sheetId="1" r:id="rId1"/>
+    <sheet name="query" sheetId="2" r:id="rId2"/>
+    <sheet name="header" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -355,12 +359,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -369,27 +369,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -405,7 +390,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -413,232 +398,501 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.6275510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.3979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:6" ht="72">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -647,34 +901,34 @@
       <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="48">
       <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="36">
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:6" ht="48">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -686,365 +940,369 @@
       <c r="D6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6">
       <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="1:6" ht="24">
+      <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.1785714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.3163265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.3163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
+    <row r="14" spans="1:5">
+      <c r="C14" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
+    <row r="22" spans="2:5">
+      <c r="C22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
+    <row r="24" spans="2:5">
+      <c r="C24" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
+    <row r="26" spans="2:5">
+      <c r="C26" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>